--- a/scripts/modules/lineage/ColumnMapping/MARM_PKMS_ColumnMapping.xlsx
+++ b/scripts/modules/lineage/ColumnMapping/MARM_PKMS_ColumnMapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sravanthi.Dasam\Desktop\github\Purview\scripts\modules\lineage\ColumnMapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A122BB04-D5B9-4128-BE89-7A8327940B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784EC425-6E71-4B70-AE71-582374B80E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{3F4C7B95-7E3D-4EE8-AE17-4D3E2DFC25C4}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="UpdateLineage" sheetId="1" r:id="rId1"/>
     <sheet name="ColumnMapping" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ColumnMapping!$A$1:$G$15</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="36">
   <si>
     <t>Target typeName</t>
   </si>
@@ -99,9 +102,6 @@
     <t>STPKGT</t>
   </si>
   <si>
-    <t>STPKQT</t>
-  </si>
-  <si>
     <t>STCSQT</t>
   </si>
   <si>
@@ -139,6 +139,15 @@
   </si>
   <si>
     <t>STNMFC</t>
+  </si>
+  <si>
+    <t>CQIPQT</t>
+  </si>
+  <si>
+    <t>pkms://file/CQSTYL00/record/WM330GGGD</t>
+  </si>
+  <si>
+    <t>sources:MARM/targets:PKMS_WM330GGGD/process_type:Column_Connection</t>
   </si>
 </sst>
 </file>
@@ -160,18 +169,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -201,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -211,9 +214,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -549,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BEE7BEE-151B-49DC-A93D-5E30CCECDA87}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,9 +606,32 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -619,10 +642,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C82ECF1F-DFDA-4FA2-9C77-2C41D2D8DCDF}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,7 +697,7 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -682,7 +706,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -696,7 +720,7 @@
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -713,13 +737,13 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>20</v>
+        <v>34</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -739,10 +763,10 @@
         <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
@@ -762,10 +786,10 @@
         <v>12</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -774,7 +798,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -785,10 +809,10 @@
         <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -797,7 +821,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -808,10 +832,10 @@
         <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
@@ -820,7 +844,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -831,10 +855,10 @@
         <v>12</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -843,7 +867,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -854,10 +878,10 @@
         <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -877,10 +901,10 @@
         <v>12</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -900,10 +924,10 @@
         <v>12</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
@@ -912,7 +936,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -923,56 +947,56 @@
         <v>12</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
         <v>11</v>
@@ -982,6 +1006,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G15" xr:uid="{C82ECF1F-DFDA-4FA2-9C77-2C41D2D8DCDF}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="UMREZ"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>